--- a/results/nl_summary_statistics.xlsx
+++ b/results/nl_summary_statistics.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H283"/>
+  <dimension ref="A1:I283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +502,11 @@
           <t>m_n</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>m_n_pair</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -532,6 +537,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -562,6 +572,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -592,6 +607,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -622,6 +642,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -652,6 +677,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -682,6 +712,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -712,6 +747,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -742,6 +782,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -772,6 +817,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -802,6 +852,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -832,6 +887,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -862,6 +922,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -892,6 +957,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -922,6 +992,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -952,6 +1027,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -982,6 +1062,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1012,6 +1097,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1042,6 +1132,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1072,6 +1167,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1102,6 +1202,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1132,6 +1237,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1162,6 +1272,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1192,6 +1307,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1222,6 +1342,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1252,6 +1377,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1282,6 +1412,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1312,6 +1447,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1342,6 +1482,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1372,6 +1517,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1402,6 +1552,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1432,6 +1587,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1462,6 +1622,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1492,6 +1657,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1522,6 +1692,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1552,6 +1727,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1582,6 +1762,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1612,6 +1797,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1642,6 +1832,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1672,6 +1867,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1702,6 +1902,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1732,6 +1937,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1762,6 +1972,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1792,6 +2007,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1822,6 +2042,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1852,6 +2077,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1882,6 +2112,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1912,6 +2147,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1942,6 +2182,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1972,6 +2217,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2002,6 +2252,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2032,6 +2287,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2062,6 +2322,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2092,6 +2357,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2122,6 +2392,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2152,6 +2427,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2182,6 +2462,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2212,6 +2497,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2242,6 +2532,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2272,6 +2567,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2302,6 +2602,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2332,6 +2637,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2362,6 +2672,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2392,6 +2707,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2422,6 +2742,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2452,6 +2777,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2482,6 +2812,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2512,6 +2847,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2542,6 +2882,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2572,6 +2917,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2602,6 +2952,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2632,6 +2987,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2662,6 +3022,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2692,6 +3057,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2722,6 +3092,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2752,6 +3127,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2782,6 +3162,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2812,6 +3197,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2842,6 +3232,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2872,6 +3267,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2902,6 +3302,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2932,6 +3337,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2962,6 +3372,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2992,6 +3407,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3022,6 +3442,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3052,6 +3477,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3082,6 +3512,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3112,6 +3547,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3142,6 +3582,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3172,6 +3617,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3202,6 +3652,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3232,6 +3687,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3262,6 +3722,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3292,6 +3757,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3322,6 +3792,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3352,6 +3827,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3382,6 +3862,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3412,6 +3897,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3442,6 +3932,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3472,6 +3967,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3502,6 +4002,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -3532,6 +4037,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3562,6 +4072,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3592,6 +4107,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3622,6 +4142,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3652,6 +4177,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3682,6 +4212,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3712,6 +4247,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3742,6 +4282,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3772,6 +4317,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -3802,6 +4352,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3832,6 +4387,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3862,6 +4422,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3892,6 +4457,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3922,6 +4492,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3952,6 +4527,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3982,6 +4562,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4012,6 +4597,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4042,6 +4632,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -4072,6 +4667,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -4102,6 +4702,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -4132,6 +4737,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4162,6 +4772,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4192,6 +4807,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4222,6 +4842,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -4252,6 +4877,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -4282,6 +4912,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -4312,6 +4947,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4342,6 +4982,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -4372,6 +5017,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -4402,6 +5052,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -4432,6 +5087,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -4462,6 +5122,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -4492,6 +5157,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -4522,6 +5192,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -4552,6 +5227,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -4582,6 +5262,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -4612,6 +5297,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -4642,6 +5332,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -4672,6 +5367,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -4702,6 +5402,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -4732,6 +5437,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -4762,6 +5472,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -4792,6 +5507,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -4822,6 +5542,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -4852,6 +5577,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -4882,6 +5612,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -4912,6 +5647,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -4942,6 +5682,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -4972,6 +5717,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -5002,6 +5752,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -5032,6 +5787,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -5062,6 +5822,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -5092,6 +5857,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -5122,6 +5892,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -5152,6 +5927,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -5182,6 +5962,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -5212,6 +5997,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -5242,6 +6032,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -5272,6 +6067,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -5302,6 +6102,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -5332,6 +6137,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -5362,6 +6172,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -5392,6 +6207,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -5422,6 +6242,11 @@
           <t>5_25</t>
         </is>
       </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>(5, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -5452,6 +6277,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -5482,6 +6312,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -5512,6 +6347,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -5542,6 +6382,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -5572,6 +6417,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -5602,6 +6452,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -5632,6 +6487,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -5662,6 +6522,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -5692,6 +6557,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -5722,6 +6592,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -5752,6 +6627,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -5782,6 +6662,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -5812,6 +6697,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -5842,6 +6732,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -5872,6 +6767,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -5902,6 +6802,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -5932,6 +6837,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -5962,6 +6872,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -5992,6 +6907,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -6022,6 +6942,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -6052,6 +6977,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -6082,6 +7012,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -6112,6 +7047,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -6142,6 +7082,11 @@
           <t>10_25</t>
         </is>
       </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>(10, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -6172,6 +7117,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -6202,6 +7152,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -6232,6 +7187,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -6262,6 +7222,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -6292,6 +7257,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -6322,6 +7292,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -6352,6 +7327,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -6382,6 +7362,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -6412,6 +7397,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -6442,6 +7432,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -6472,6 +7467,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -6502,6 +7502,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -6532,6 +7537,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -6562,6 +7572,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -6592,6 +7607,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -6622,6 +7642,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -6652,6 +7677,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -6682,6 +7712,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -6712,6 +7747,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -6742,6 +7782,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -6772,6 +7817,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -6802,6 +7852,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -6832,6 +7887,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -6862,6 +7922,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -6892,6 +7957,11 @@
           <t>20_25</t>
         </is>
       </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>(20, 25)</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -6922,6 +7992,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -6952,6 +8027,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -6982,6 +8062,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -7012,6 +8097,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -7042,6 +8132,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -7072,6 +8167,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -7102,6 +8202,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -7132,6 +8237,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -7162,6 +8272,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -7192,6 +8307,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -7222,6 +8342,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -7252,6 +8377,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -7282,6 +8412,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -7312,6 +8447,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -7342,6 +8482,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -7372,6 +8517,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -7402,6 +8552,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -7432,6 +8587,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -7462,6 +8622,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -7492,6 +8657,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -7522,6 +8692,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -7552,6 +8727,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -7582,6 +8762,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -7612,6 +8797,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -7642,6 +8832,11 @@
           <t>5_50</t>
         </is>
       </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>(5, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -7672,6 +8867,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -7702,6 +8902,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -7732,6 +8937,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -7762,6 +8972,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -7792,6 +9007,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -7822,6 +9042,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -7852,6 +9077,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -7882,6 +9112,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -7912,6 +9147,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -7942,6 +9182,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -7972,6 +9217,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -8002,6 +9252,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -8032,6 +9287,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -8062,6 +9322,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -8092,6 +9357,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -8122,6 +9392,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -8152,6 +9427,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -8182,6 +9462,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -8212,6 +9497,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -8242,6 +9532,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -8272,6 +9567,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -8302,6 +9602,11 @@
           <t>10_50</t>
         </is>
       </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>(10, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -8332,6 +9637,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -8362,6 +9672,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -8392,6 +9707,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -8422,6 +9742,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -8452,6 +9777,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -8482,6 +9812,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -8512,6 +9847,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -8542,6 +9882,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -8572,6 +9917,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -8602,6 +9952,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -8632,6 +9987,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -8662,6 +10022,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -8692,6 +10057,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -8722,6 +10092,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -8752,6 +10127,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -8782,6 +10162,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -8812,6 +10197,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -8842,6 +10232,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -8872,6 +10267,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -8902,6 +10302,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -8932,6 +10337,11 @@
           <t>20_50</t>
         </is>
       </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -8960,6 +10370,11 @@
       <c r="H283" t="inlineStr">
         <is>
           <t>20_50</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>(20, 50)</t>
         </is>
       </c>
     </row>
@@ -9115,7 +10530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>m_n</t>
+          <t>m_n_pair</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -9162,7 +10577,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>10_25</t>
+          <t>(10, 25)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -9193,7 +10608,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>10_50</t>
+          <t>(10, 50)</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -9224,14 +10639,14 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>20_25</t>
+          <t>(20, 25)</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8387822300577964</v>
+        <v>0.8387822300577962</v>
       </c>
       <c r="D4" t="n">
         <v>0.8243306608208111</v>
@@ -9255,7 +10670,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>20_50</t>
+          <t>(20, 50)</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -9286,7 +10701,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5_25</t>
+          <t>(5, 25)</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -9317,7 +10732,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>5_50</t>
+          <t>(5, 50)</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -9327,7 +10742,7 @@
         <v>0.1377622844377788</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2124010183465963</v>
+        <v>0.2124010183465964</v>
       </c>
       <c r="E7" t="n">
         <v>-2.713883721253869e-06</v>
@@ -9497,7 +10912,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>m_n</t>
+          <t>m_n_pair</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -9544,7 +10959,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>10_25</t>
+          <t>(10, 25)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -9575,7 +10990,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>10_50</t>
+          <t>(10, 50)</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -9585,7 +11000,7 @@
         <v>16.61483109775046</v>
       </c>
       <c r="D3" t="n">
-        <v>14.55641962232453</v>
+        <v>14.55641962232454</v>
       </c>
       <c r="E3" t="n">
         <v>0.9693482279428061</v>
@@ -9606,14 +11021,14 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>20_25</t>
+          <t>(20, 25)</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>33.89401194348464</v>
+        <v>33.89401194348463</v>
       </c>
       <c r="D4" t="n">
         <v>23.72894028078841</v>
@@ -9637,14 +11052,14 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>20_50</t>
+          <t>(20, 50)</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>28.36688041413749</v>
+        <v>28.36688041413748</v>
       </c>
       <c r="D5" t="n">
         <v>18.93559804001755</v>
@@ -9668,7 +11083,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5_25</t>
+          <t>(5, 25)</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -9699,7 +11114,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>5_50</t>
+          <t>(5, 50)</t>
         </is>
       </c>
       <c r="B7" t="n">
